--- a/Rule-Based Classifier/shuffled_1_df_4th_model_100_rows.xlsx
+++ b/Rule-Based Classifier/shuffled_1_df_4th_model_100_rows.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia Belkina\MANNHEIM\MASTER_THESIS_CODE\Rule-Based Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25F5AE-EE32-4DFC-B466-A04F0B629B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB9E51-0A11-4659-930B-7F6CD88F369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yellow" sheetId="2" r:id="rId2"/>
+    <sheet name="Red" sheetId="3" r:id="rId3"/>
+    <sheet name="Clean" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="592">
   <si>
     <t>Sentence</t>
   </si>
@@ -1670,13 +1686,139 @@
   </si>
   <si>
     <t>[('The', 3, 'det'), ('dream', 3, 'compound'), ('scenario', 8, 'nsubj'), ('for', 6, 'case'), ('the', 6, 'det'), ('Giants', 3, 'nmod'), ('is', 8, 'cop'), ('Aaron', 0, 'root'), ('Rodgers', 8, 'flat'), ('on', 12, 'case'), ('the', 12, 'det'), ('sidelines', 8, 'nmod'), (',', 14, 'punct'), ('frozen', 8, 'acl'), ('with', 16, 'case'), ('helplessness', 14, 'obl'), ('and', 18, 'cc'), ('anxiety', 16, 'conj'), (',', 20, 'punct'), ('watching', 8, 'advcl'), ('the', 22, 'det'), ('kid', 20, 'obj'), ('run', 20, 'xcomp'), ('the', 25, 'det'), ('rock', 23, 'obj'), ('over', 23, 'advmod'), ('and', 28, 'cc'), ('over', 26, 'conj'), ('and', 30, 'cc'), ('over', 26, 'conj'), ('again', 26, 'conj'), ('.', 8, 'punct')]</t>
+  </si>
+  <si>
+    <t>My_Label</t>
+  </si>
+  <si>
+    <t>False_Positive_With_My_Labels</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>no nsubj in the sentence</t>
+  </si>
+  <si>
+    <t>\'Today' is marked as nsubj for both verbs, it's not valid</t>
+  </si>
+  <si>
+    <t>[('Singer', 'announce', 'endorsement', 1)]</t>
+  </si>
+  <si>
+    <t>[('Sen.', 'testified', 'move', 0)]</t>
+  </si>
+  <si>
+    <t>[('449', 'support', 'Clinton', 1)]</t>
+  </si>
+  <si>
+    <t>TODO - the algorithm looks not only for own agent, but also for agent of its head. Or object of its following verb. TODO</t>
+  </si>
+  <si>
+    <t>posting loss - negative polarity</t>
+  </si>
+  <si>
+    <t>\'the' as subject because in the original data the word is missing</t>
+  </si>
+  <si>
+    <t>No agent of blame</t>
+  </si>
+  <si>
+    <t>TODO - Why not recognized Tibet enjoyed support?</t>
+  </si>
+  <si>
+    <t>[('journalists', 'struggled', 'advocates', 2)]</t>
+  </si>
+  <si>
+    <t>TODO - sae denies charges?</t>
+  </si>
+  <si>
+    <t>no such valid agent 'forward'</t>
+  </si>
+  <si>
+    <t>leave + New gave negative polarity</t>
+  </si>
+  <si>
+    <t>TODO - President vowed boosed power</t>
+  </si>
+  <si>
+    <t>respects didnt pass the verb validity check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why Paul attack and not They? Because both this agent are related to that verb and Paul stands before</t>
+  </si>
+  <si>
+    <t>TODO - Why not he criticized work?</t>
+  </si>
+  <si>
+    <t>made is not a valid verb, critizism is not a valid agent</t>
+  </si>
+  <si>
+    <t>agent of head is taken as agent. Here mistake but needed in other cases (conj)</t>
+  </si>
+  <si>
+    <t>No active blaming object</t>
+  </si>
+  <si>
+    <t>regected demands  - negative polarity</t>
+  </si>
+  <si>
+    <t>earning support was recognized as negative polarity</t>
+  </si>
+  <si>
+    <t>starts suspicions - negative polarity</t>
+  </si>
+  <si>
+    <t>TODO - A harassed workers?</t>
+  </si>
+  <si>
+    <t>TODO - critics praised … tackles challenge - negative polarity</t>
+  </si>
+  <si>
+    <t>she resolved things - positive polarity</t>
+  </si>
+  <si>
+    <t>TODO - Why Democrats?? failed support - negative polarity</t>
+  </si>
+  <si>
+    <t>calls pressure - negative polarity</t>
+  </si>
+  <si>
+    <t>TODO - Trump praised Durret why not???</t>
+  </si>
+  <si>
+    <t>responded rally - positive polarity</t>
+  </si>
+  <si>
+    <t>no object</t>
+  </si>
+  <si>
+    <t>limit amounts - negative polarity</t>
+  </si>
+  <si>
+    <t>failed instructions - negative polarity</t>
+  </si>
+  <si>
+    <t>supporting designers - positive polarity</t>
+  </si>
+  <si>
+    <t>no valid agent</t>
+  </si>
+  <si>
+    <t>TODO - where is B attacked C??</t>
+  </si>
+  <si>
+    <t>TODO - why 449 is a valid agent??</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,16 +1831,54 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1721,20 +1901,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1745,6 +1985,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F01C2FE-AB69-480B-BB93-9E86A6EF05BF}" name="Table1" displayName="Table1" ref="A1:J101" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A1:J101" xr:uid="{6F01C2FE-AB69-480B-BB93-9E86A6EF05BF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{663853CD-0298-494C-BB6C-6E8DE92F8CCA}" name="Sentence"/>
+    <tableColumn id="2" xr3:uid="{ED3CB2E0-93E8-4ACA-98CE-CC48A70C57B3}" name="All_Triplets_and_Polarities"/>
+    <tableColumn id="3" xr3:uid="{71CDAE4D-879D-4A88-8A8B-5137F418A2E9}" name="All_Valid_Verbs"/>
+    <tableColumn id="4" xr3:uid="{992678F2-2755-4BE7-AACF-123725AADE49}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{4C6F100F-FA17-439F-839F-86E07F8DA0E8}" name="My_Label"/>
+    <tableColumn id="6" xr3:uid="{D196F2BC-E2C2-4B77-ABEC-435040BBE781}" name="False_Positive_With_My_Labels">
+      <calculatedColumnFormula>IF(B2&gt;E2, 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9F73E678-F6CB-4488-BF00-E5D76E34CCFE}" name="Their_Label"/>
+    <tableColumn id="8" xr3:uid="{6DFDE064-F6B0-47B0-A0D1-FE05B34C8AD7}" name="tokens_pos"/>
+    <tableColumn id="9" xr3:uid="{3650A48E-F773-472E-8416-A250AA5DBD93}" name="entities"/>
+    <tableColumn id="10" xr3:uid="{46E1D740-1D7A-42BD-8E0B-77EF18F96831}" name="dependencies"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2032,21 +2293,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="B70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.6640625" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="140.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="64.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,229 +2321,4411 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="0">IF(B2&gt;E2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <f>IF(B9&gt;E9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f>IF(B11&gt;E11, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>553</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>IF(B13&gt;E13, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>IF(B14&gt;E14, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F21" si="1">IF(B16&gt;E16, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>IF(B24&gt;E24, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>IF(B25&gt;E25, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>IF(B27&gt;E27, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>IF(B28&gt;E28, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>IF(B30&gt;E30, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>IF(B32&gt;E32, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <f>IF(B33&gt;E33, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>IF(B37&gt;E37, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F47" si="2">IF(B39&gt;E39, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>572</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>573</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>2</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46" t="s">
+        <v>248</v>
+      </c>
+      <c r="J46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>IF(B51&gt;E51, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>IF(B52&gt;E52, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>280</v>
+      </c>
+      <c r="I52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>IF(B53&gt;E53, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>IF(B54&gt;E54, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>290</v>
+      </c>
+      <c r="I54" t="s">
+        <v>291</v>
+      </c>
+      <c r="J54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" ref="F56:F61" si="3">IF(B56&gt;E56, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>556</v>
+      </c>
+      <c r="C57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" t="s">
+        <v>307</v>
+      </c>
+      <c r="J57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>311</v>
+      </c>
+      <c r="I58" t="s">
+        <v>312</v>
+      </c>
+      <c r="J58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>316</v>
+      </c>
+      <c r="I59" t="s">
+        <v>317</v>
+      </c>
+      <c r="J59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>333</v>
+      </c>
+      <c r="I62" t="s">
+        <v>334</v>
+      </c>
+      <c r="J62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>IF(B63&gt;E63, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>338</v>
+      </c>
+      <c r="I63" t="s">
+        <v>339</v>
+      </c>
+      <c r="J63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>IF(B64&gt;E64, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>343</v>
+      </c>
+      <c r="I64" t="s">
+        <v>344</v>
+      </c>
+      <c r="J64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>349</v>
+      </c>
+      <c r="I65" t="s">
+        <v>350</v>
+      </c>
+      <c r="J65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" t="s">
+        <v>579</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>355</v>
+      </c>
+      <c r="I66" t="s">
+        <v>356</v>
+      </c>
+      <c r="J66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <f>IF(B67&gt;E67, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>IF(B68&gt;E68, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>366</v>
+      </c>
+      <c r="I68" t="s">
+        <v>367</v>
+      </c>
+      <c r="J68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>IF(B69&gt;E69, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>371</v>
+      </c>
+      <c r="I69" t="s">
+        <v>372</v>
+      </c>
+      <c r="J69" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>IF(B70&gt;E70, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>376</v>
+      </c>
+      <c r="I70" t="s">
+        <v>377</v>
+      </c>
+      <c r="J70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71" t="s">
+        <v>383</v>
+      </c>
+      <c r="J71" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>IF(B72&gt;E72, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>387</v>
+      </c>
+      <c r="I72" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>391</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>IF(B73&gt;E73, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>392</v>
+      </c>
+      <c r="I73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <f>IF(B74&gt;E74, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" t="s">
+        <v>403</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>404</v>
+      </c>
+      <c r="I75" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>IF(B76&gt;E76, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>409</v>
+      </c>
+      <c r="I76" t="s">
+        <v>410</v>
+      </c>
+      <c r="J76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <f>IF(B77&gt;E77, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" t="s">
+        <v>418</v>
+      </c>
+      <c r="C78" t="s">
+        <v>419</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>420</v>
+      </c>
+      <c r="I78" t="s">
+        <v>421</v>
+      </c>
+      <c r="J78" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>423</v>
+      </c>
+      <c r="B79" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" t="s">
+        <v>425</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>426</v>
+      </c>
+      <c r="I79" t="s">
+        <v>427</v>
+      </c>
+      <c r="J79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>429</v>
+      </c>
+      <c r="B80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C80" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>432</v>
+      </c>
+      <c r="I80" t="s">
+        <v>433</v>
+      </c>
+      <c r="J80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>435</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>436</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>IF(B81&gt;E81, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>437</v>
+      </c>
+      <c r="I81" t="s">
+        <v>438</v>
+      </c>
+      <c r="J81" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>440</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" t="s">
+        <v>584</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <f>IF(B82&gt;E82, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>442</v>
+      </c>
+      <c r="I82" t="s">
+        <v>443</v>
+      </c>
+      <c r="J82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>IF(B84&gt;E84, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>453</v>
+      </c>
+      <c r="I84" t="s">
+        <v>454</v>
+      </c>
+      <c r="J84" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" t="s">
+        <v>457</v>
+      </c>
+      <c r="C85" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>459</v>
+      </c>
+      <c r="I85" t="s">
+        <v>460</v>
+      </c>
+      <c r="J85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>462</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>IF(B86&gt;E86, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>464</v>
+      </c>
+      <c r="I86" t="s">
+        <v>465</v>
+      </c>
+      <c r="J86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>467</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>IF(B87&gt;E87, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>469</v>
+      </c>
+      <c r="I87" t="s">
+        <v>470</v>
+      </c>
+      <c r="J87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>472</v>
+      </c>
+      <c r="B88" t="s">
+        <v>473</v>
+      </c>
+      <c r="C88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>475</v>
+      </c>
+      <c r="I88" t="s">
+        <v>476</v>
+      </c>
+      <c r="J88" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>478</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>479</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>IF(B89&gt;E89, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>480</v>
+      </c>
+      <c r="I89" t="s">
+        <v>481</v>
+      </c>
+      <c r="J89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>489</v>
+      </c>
+      <c r="B91" t="s">
+        <v>490</v>
+      </c>
+      <c r="C91" t="s">
+        <v>491</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>492</v>
+      </c>
+      <c r="I91" t="s">
+        <v>493</v>
+      </c>
+      <c r="J91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" t="s">
+        <v>497</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>498</v>
+      </c>
+      <c r="I92" t="s">
+        <v>499</v>
+      </c>
+      <c r="J92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>501</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>502</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>IF(B93&gt;E93, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>503</v>
+      </c>
+      <c r="I93" t="s">
+        <v>504</v>
+      </c>
+      <c r="J93" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="6">
+        <v>2</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" ref="F95:F101" si="4">IF(B95&gt;E95, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>518</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>519</v>
+      </c>
+      <c r="D96" t="s">
+        <v>588</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>520</v>
+      </c>
+      <c r="I96" t="s">
+        <v>521</v>
+      </c>
+      <c r="J96" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" t="s">
+        <v>530</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>531</v>
+      </c>
+      <c r="I98" t="s">
+        <v>532</v>
+      </c>
+      <c r="J98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" t="s">
+        <v>540</v>
+      </c>
+      <c r="C100" t="s">
+        <v>541</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>542</v>
+      </c>
+      <c r="I100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J100" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>545</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>546</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>547</v>
+      </c>
+      <c r="I101" t="s">
+        <v>548</v>
+      </c>
+      <c r="J101" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B209A42E-501D-4AE1-86AE-EDB0A75225EB}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" t="s">
+        <v>362</v>
+      </c>
+      <c r="J10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" t="s">
+        <v>399</v>
+      </c>
+      <c r="J11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" t="s">
+        <v>582</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I12" t="s">
+        <v>415</v>
+      </c>
+      <c r="J12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>525</v>
+      </c>
+      <c r="I13" t="s">
+        <v>526</v>
+      </c>
+      <c r="J13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>536</v>
+      </c>
+      <c r="I14" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC3FCE2-20F4-4220-9186-58D17C9F1F2F}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I10" t="s">
+        <v>449</v>
+      </c>
+      <c r="J10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" t="s">
+        <v>487</v>
+      </c>
+      <c r="J11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>515</v>
+      </c>
+      <c r="I13" t="s">
+        <v>516</v>
+      </c>
+      <c r="J13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420F4CCD-24AF-4599-B0DC-21DB2E2E0FE2}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>51</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2287,65 +6736,56 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2356,42 +6796,36 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
-        <v>77</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2402,19 +6836,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2425,19 +6856,16 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -2448,19 +6876,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -2471,19 +6896,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2494,88 +6916,76 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
-      <c r="B22" t="s">
-        <v>113</v>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
-      <c r="B23" t="s">
-        <v>119</v>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2586,19 +6996,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2609,42 +7016,36 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
-      <c r="B26" t="s">
-        <v>135</v>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2655,19 +7056,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2678,88 +7076,76 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
-        <v>151</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
-      <c r="B30" t="s">
-        <v>157</v>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
-      <c r="B31" t="s">
-        <v>163</v>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -2770,111 +7156,96 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
-      <c r="B34" t="s">
-        <v>179</v>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
-      <c r="B35" t="s">
-        <v>185</v>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>190</v>
       </c>
-      <c r="B36" t="s">
-        <v>191</v>
+      <c r="B36">
+        <v>2</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -2885,88 +7256,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>201</v>
       </c>
-      <c r="B38" t="s">
-        <v>202</v>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>207</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>212</v>
       </c>
-      <c r="B40" t="s">
-        <v>213</v>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
-      </c>
-      <c r="G40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>218</v>
       </c>
@@ -2977,19 +7336,16 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -3000,88 +7356,76 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>228</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>233</v>
       </c>
-      <c r="B44" t="s">
-        <v>234</v>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G44" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>239</v>
       </c>
-      <c r="B45" t="s">
-        <v>240</v>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
-      </c>
-      <c r="G45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>245</v>
       </c>
@@ -3092,19 +7436,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>250</v>
       </c>
@@ -3115,88 +7456,76 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
-      </c>
-      <c r="G47" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>255</v>
       </c>
-      <c r="B48" t="s">
-        <v>256</v>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
-      </c>
-      <c r="G48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" t="s">
-        <v>262</v>
+      <c r="B49">
+        <v>2</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F49" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>267</v>
       </c>
-      <c r="B50" t="s">
-        <v>268</v>
+      <c r="B50">
+        <v>2</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
-      </c>
-      <c r="G50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -3207,19 +7536,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
-      </c>
-      <c r="G51" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -3230,19 +7556,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>283</v>
       </c>
@@ -3253,19 +7576,16 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
-      </c>
-      <c r="G53" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>288</v>
       </c>
@@ -3276,65 +7596,56 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G54" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>293</v>
       </c>
-      <c r="B55" t="s">
-        <v>294</v>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
-      </c>
-      <c r="G55" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>299</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
-      </c>
-      <c r="G56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>304</v>
       </c>
@@ -3345,19 +7656,16 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
-      </c>
-      <c r="G57" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>309</v>
       </c>
@@ -3368,19 +7676,16 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F58" t="s">
-        <v>312</v>
-      </c>
-      <c r="G58" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>314</v>
       </c>
@@ -3391,42 +7696,36 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>317</v>
-      </c>
-      <c r="G59" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>319</v>
       </c>
-      <c r="B60" t="s">
-        <v>320</v>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>325</v>
       </c>
@@ -3437,42 +7736,36 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>330</v>
       </c>
-      <c r="B62" t="s">
-        <v>331</v>
+      <c r="B62">
+        <v>2</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
-      </c>
-      <c r="G62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>336</v>
       </c>
@@ -3483,19 +7776,16 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F63" t="s">
-        <v>339</v>
-      </c>
-      <c r="G63" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>341</v>
       </c>
@@ -3506,88 +7796,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
-      </c>
-      <c r="G64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>346</v>
       </c>
-      <c r="B65" t="s">
-        <v>347</v>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
-      </c>
-      <c r="G65" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>352</v>
       </c>
-      <c r="B66" t="s">
-        <v>353</v>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
-        <v>356</v>
-      </c>
-      <c r="G66" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>358</v>
       </c>
-      <c r="B67" t="s">
-        <v>359</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
-      </c>
-      <c r="G67" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>364</v>
       </c>
@@ -3598,19 +7876,16 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F68" t="s">
-        <v>367</v>
-      </c>
-      <c r="G68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -3621,19 +7896,16 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F69" t="s">
-        <v>372</v>
-      </c>
-      <c r="G69" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>374</v>
       </c>
@@ -3644,42 +7916,36 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F70" t="s">
-        <v>377</v>
-      </c>
-      <c r="G70" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>379</v>
       </c>
-      <c r="B71" t="s">
-        <v>380</v>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F71" t="s">
-        <v>383</v>
-      </c>
-      <c r="G71" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>385</v>
       </c>
@@ -3690,19 +7956,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
-      </c>
-      <c r="G72" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -3713,65 +7976,56 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>393</v>
-      </c>
-      <c r="G73" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>395</v>
       </c>
-      <c r="B74" t="s">
-        <v>396</v>
+      <c r="B74">
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F74" t="s">
-        <v>399</v>
-      </c>
-      <c r="G74" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>401</v>
       </c>
-      <c r="B75" t="s">
-        <v>402</v>
+      <c r="B75">
+        <v>2</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F75" t="s">
-        <v>405</v>
-      </c>
-      <c r="G75" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>407</v>
       </c>
@@ -3782,111 +8036,96 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E76" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F76" t="s">
-        <v>410</v>
-      </c>
-      <c r="G76" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>412</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F77" t="s">
-        <v>415</v>
-      </c>
-      <c r="G77" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>417</v>
       </c>
-      <c r="B78" t="s">
-        <v>418</v>
+      <c r="B78">
+        <v>2</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E78" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F78" t="s">
-        <v>421</v>
-      </c>
-      <c r="G78" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>423</v>
       </c>
-      <c r="B79" t="s">
-        <v>424</v>
+      <c r="B79">
+        <v>0</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E79" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F79" t="s">
-        <v>427</v>
-      </c>
-      <c r="G79" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>429</v>
       </c>
-      <c r="B80" t="s">
-        <v>430</v>
+      <c r="B80">
+        <v>2</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E80" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
-      </c>
-      <c r="G80" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>435</v>
       </c>
@@ -3897,65 +8136,56 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E81" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
-      </c>
-      <c r="G81" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>440</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F82" t="s">
-        <v>443</v>
-      </c>
-      <c r="G82" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>445</v>
       </c>
-      <c r="B83" t="s">
-        <v>446</v>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F83" t="s">
-        <v>449</v>
-      </c>
-      <c r="G83" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>451</v>
       </c>
@@ -3966,42 +8196,36 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F84" t="s">
-        <v>454</v>
-      </c>
-      <c r="G84" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>456</v>
       </c>
-      <c r="B85" t="s">
-        <v>457</v>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F85" t="s">
-        <v>460</v>
-      </c>
-      <c r="G85" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>462</v>
       </c>
@@ -4012,19 +8236,16 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E86" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F86" t="s">
-        <v>465</v>
-      </c>
-      <c r="G86" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>467</v>
       </c>
@@ -4035,42 +8256,36 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E87" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F87" t="s">
-        <v>470</v>
-      </c>
-      <c r="G87" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>472</v>
       </c>
-      <c r="B88" t="s">
-        <v>473</v>
+      <c r="B88">
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E88" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F88" t="s">
-        <v>476</v>
-      </c>
-      <c r="G88" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>478</v>
       </c>
@@ -4081,88 +8296,76 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E89" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F89" t="s">
-        <v>481</v>
-      </c>
-      <c r="G89" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>483</v>
       </c>
-      <c r="B90" t="s">
-        <v>484</v>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F90" t="s">
-        <v>487</v>
-      </c>
-      <c r="G90" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>489</v>
       </c>
-      <c r="B91" t="s">
-        <v>490</v>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E91" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F91" t="s">
-        <v>493</v>
-      </c>
-      <c r="G91" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>495</v>
       </c>
-      <c r="B92" t="s">
-        <v>496</v>
+      <c r="B92">
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F92" t="s">
-        <v>499</v>
-      </c>
-      <c r="G92" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>501</v>
       </c>
@@ -4173,65 +8376,56 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E93" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F93" t="s">
-        <v>504</v>
-      </c>
-      <c r="G93" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>506</v>
       </c>
-      <c r="B94" t="s">
-        <v>507</v>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F94" t="s">
-        <v>510</v>
-      </c>
-      <c r="G94" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>512</v>
       </c>
-      <c r="B95" t="s">
-        <v>513</v>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E95" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F95" t="s">
-        <v>516</v>
-      </c>
-      <c r="G95" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>518</v>
       </c>
@@ -4242,111 +8436,96 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E96" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F96" t="s">
-        <v>521</v>
-      </c>
-      <c r="G96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>523</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E97" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F97" t="s">
-        <v>526</v>
-      </c>
-      <c r="G97" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>528</v>
       </c>
-      <c r="B98" t="s">
-        <v>529</v>
+      <c r="B98">
+        <v>2</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E98" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F98" t="s">
-        <v>532</v>
-      </c>
-      <c r="G98" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>534</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E99" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F99" t="s">
-        <v>537</v>
-      </c>
-      <c r="G99" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>539</v>
       </c>
-      <c r="B100" t="s">
-        <v>540</v>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E100" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F100" t="s">
-        <v>543</v>
-      </c>
-      <c r="G100" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>545</v>
       </c>
@@ -4357,19 +8536,16 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F101" t="s">
-        <v>548</v>
-      </c>
-      <c r="G101" t="s">
         <v>549</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rule-Based Classifier/shuffled_1_df_4th_model_100_rows.xlsx
+++ b/Rule-Based Classifier/shuffled_1_df_4th_model_100_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia Belkina\MANNHEIM\MASTER_THESIS_CODE\Rule-Based Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB9E51-0A11-4659-930B-7F6CD88F369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947607B1-8A25-4B76-98EE-1D2EE4F4B435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1830,6 +1830,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -6517,7 +6518,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8110,7 +8111,7 @@
         <v>429</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>2</v>
